--- a/DataFinalOficialLimpia.xlsx
+++ b/DataFinalOficialLimpia.xlsx
@@ -5306,7 +5306,7 @@
         <v>30.81362</v>
       </c>
       <c r="AE2" t="n">
-        <v>-29.81362</v>
+        <v>69.18638</v>
       </c>
     </row>
     <row r="3">
@@ -5401,7 +5401,7 @@
         <v>32.35128</v>
       </c>
       <c r="AE3" t="n">
-        <v>-31.35128</v>
+        <v>67.64872</v>
       </c>
     </row>
     <row r="4">
@@ -5496,7 +5496,7 @@
         <v>30.25604</v>
       </c>
       <c r="AE4" t="n">
-        <v>-29.25604</v>
+        <v>69.74396</v>
       </c>
     </row>
     <row r="5">
@@ -5591,7 +5591,7 @@
         <v>32.9027</v>
       </c>
       <c r="AE5" t="n">
-        <v>-31.9027</v>
+        <v>67.0973</v>
       </c>
     </row>
     <row r="6">
@@ -5686,7 +5686,7 @@
         <v>28.88754</v>
       </c>
       <c r="AE6" t="n">
-        <v>-27.88754</v>
+        <v>71.11246</v>
       </c>
     </row>
     <row r="7">
@@ -5781,7 +5781,7 @@
         <v>28.62596</v>
       </c>
       <c r="AE7" t="n">
-        <v>-27.62596</v>
+        <v>71.37404</v>
       </c>
     </row>
     <row r="8">
@@ -5876,7 +5876,7 @@
         <v>31.97866</v>
       </c>
       <c r="AE8" t="n">
-        <v>-30.97866</v>
+        <v>68.02134</v>
       </c>
     </row>
     <row r="9">
@@ -5971,7 +5971,7 @@
         <v>31.06281</v>
       </c>
       <c r="AE9" t="n">
-        <v>-30.06281</v>
+        <v>68.93719</v>
       </c>
     </row>
     <row r="10">
@@ -6066,7 +6066,7 @@
         <v>38.04726</v>
       </c>
       <c r="AE10" t="n">
-        <v>-37.04726</v>
+        <v>61.95274</v>
       </c>
     </row>
     <row r="11">
@@ -6161,7 +6161,7 @@
         <v>33.47782</v>
       </c>
       <c r="AE11" t="n">
-        <v>-32.47782</v>
+        <v>66.52218</v>
       </c>
     </row>
     <row r="12">
@@ -6256,7 +6256,7 @@
         <v>32.33763</v>
       </c>
       <c r="AE12" t="n">
-        <v>-31.33763</v>
+        <v>67.66237</v>
       </c>
     </row>
     <row r="13">
@@ -6351,7 +6351,7 @@
         <v>33.45813</v>
       </c>
       <c r="AE13" t="n">
-        <v>-32.45813</v>
+        <v>66.54187</v>
       </c>
     </row>
     <row r="14">
@@ -6446,7 +6446,7 @@
         <v>39.00042</v>
       </c>
       <c r="AE14" t="n">
-        <v>-38.00042</v>
+        <v>60.99958</v>
       </c>
     </row>
     <row r="15">
@@ -6541,7 +6541,7 @@
         <v>31.70589</v>
       </c>
       <c r="AE15" t="n">
-        <v>-30.70589</v>
+        <v>68.29411</v>
       </c>
     </row>
     <row r="16">
@@ -6636,7 +6636,7 @@
         <v>25.75835</v>
       </c>
       <c r="AE16" t="n">
-        <v>-24.75835</v>
+        <v>74.24165</v>
       </c>
     </row>
     <row r="17">
@@ -6731,7 +6731,7 @@
         <v>24.21221</v>
       </c>
       <c r="AE17" t="n">
-        <v>-23.21221</v>
+        <v>75.78779</v>
       </c>
     </row>
     <row r="18">
@@ -6826,7 +6826,7 @@
         <v>33.34326</v>
       </c>
       <c r="AE18" t="n">
-        <v>-32.34326</v>
+        <v>66.65674</v>
       </c>
     </row>
     <row r="19">
@@ -6921,7 +6921,7 @@
         <v>35.77209</v>
       </c>
       <c r="AE19" t="n">
-        <v>-34.77209</v>
+        <v>64.22791</v>
       </c>
     </row>
     <row r="20">
@@ -7016,7 +7016,7 @@
         <v>31.17406</v>
       </c>
       <c r="AE20" t="n">
-        <v>-30.17406</v>
+        <v>68.82594</v>
       </c>
     </row>
     <row r="21">
@@ -7111,7 +7111,7 @@
         <v>39.95421</v>
       </c>
       <c r="AE21" t="n">
-        <v>-38.95421</v>
+        <v>60.04579</v>
       </c>
     </row>
     <row r="22">
@@ -7206,7 +7206,7 @@
         <v>29.94019</v>
       </c>
       <c r="AE22" t="n">
-        <v>-28.94019</v>
+        <v>70.05981</v>
       </c>
     </row>
     <row r="23">
@@ -7301,7 +7301,7 @@
         <v>24.6019</v>
       </c>
       <c r="AE23" t="n">
-        <v>-23.6019</v>
+        <v>75.3981</v>
       </c>
     </row>
     <row r="24">
@@ -7396,7 +7396,7 @@
         <v>36.25408</v>
       </c>
       <c r="AE24" t="n">
-        <v>-35.25408</v>
+        <v>63.74592</v>
       </c>
     </row>
     <row r="25">
@@ -7491,7 +7491,7 @@
         <v>29.63712</v>
       </c>
       <c r="AE25" t="n">
-        <v>-28.63712</v>
+        <v>70.36288</v>
       </c>
     </row>
     <row r="26">
@@ -7586,7 +7586,7 @@
         <v>19.91211</v>
       </c>
       <c r="AE26" t="n">
-        <v>-18.91211</v>
+        <v>80.08789</v>
       </c>
     </row>
     <row r="27">
@@ -7681,7 +7681,7 @@
         <v>27.17656</v>
       </c>
       <c r="AE27" t="n">
-        <v>-26.17656</v>
+        <v>72.82344</v>
       </c>
     </row>
     <row r="28">
@@ -7776,7 +7776,7 @@
         <v>35.66426</v>
       </c>
       <c r="AE28" t="n">
-        <v>-34.66426</v>
+        <v>64.33574</v>
       </c>
     </row>
     <row r="29">
@@ -7871,7 +7871,7 @@
         <v>32.91589</v>
       </c>
       <c r="AE29" t="n">
-        <v>-31.91589</v>
+        <v>67.08411</v>
       </c>
     </row>
     <row r="30">
@@ -7966,7 +7966,7 @@
         <v>42.29779</v>
       </c>
       <c r="AE30" t="n">
-        <v>-41.29779</v>
+        <v>57.70221</v>
       </c>
     </row>
     <row r="31">
@@ -8061,7 +8061,7 @@
         <v>39.50675</v>
       </c>
       <c r="AE31" t="n">
-        <v>-38.50675</v>
+        <v>60.49325</v>
       </c>
     </row>
     <row r="32">
@@ -8156,7 +8156,7 @@
         <v>33.86423</v>
       </c>
       <c r="AE32" t="n">
-        <v>-32.86423</v>
+        <v>66.13577</v>
       </c>
     </row>
     <row r="33">
@@ -8251,7 +8251,7 @@
         <v>32.24754</v>
       </c>
       <c r="AE33" t="n">
-        <v>-31.24754</v>
+        <v>67.75246</v>
       </c>
     </row>
     <row r="34">
@@ -8346,7 +8346,7 @@
         <v>39.1782</v>
       </c>
       <c r="AE34" t="n">
-        <v>-38.1782</v>
+        <v>60.8218</v>
       </c>
     </row>
     <row r="35">
@@ -8441,7 +8441,7 @@
         <v>32.22661</v>
       </c>
       <c r="AE35" t="n">
-        <v>-31.22661</v>
+        <v>67.77339</v>
       </c>
     </row>
     <row r="36">
@@ -8536,7 +8536,7 @@
         <v>42.34517</v>
       </c>
       <c r="AE36" t="n">
-        <v>-41.34517</v>
+        <v>57.65483</v>
       </c>
     </row>
     <row r="37">
@@ -8631,7 +8631,7 @@
         <v>41.10935</v>
       </c>
       <c r="AE37" t="n">
-        <v>-40.10935</v>
+        <v>58.89065</v>
       </c>
     </row>
     <row r="38">
@@ -8726,7 +8726,7 @@
         <v>37.19657</v>
       </c>
       <c r="AE38" t="n">
-        <v>-36.19657</v>
+        <v>62.80343</v>
       </c>
     </row>
     <row r="39">
@@ -8821,7 +8821,7 @@
         <v>45.93525</v>
       </c>
       <c r="AE39" t="n">
-        <v>-44.93525</v>
+        <v>54.06475</v>
       </c>
     </row>
     <row r="40">
@@ -8916,7 +8916,7 @@
         <v>28.30965</v>
       </c>
       <c r="AE40" t="n">
-        <v>-27.30965</v>
+        <v>71.69035</v>
       </c>
     </row>
     <row r="41">
@@ -9011,7 +9011,7 @@
         <v>27.11068</v>
       </c>
       <c r="AE41" t="n">
-        <v>-26.11068</v>
+        <v>72.88932</v>
       </c>
     </row>
     <row r="42">
@@ -9106,7 +9106,7 @@
         <v>39.15068</v>
       </c>
       <c r="AE42" t="n">
-        <v>-38.15068</v>
+        <v>60.84932</v>
       </c>
     </row>
     <row r="43">
@@ -9201,7 +9201,7 @@
         <v>37.10974</v>
       </c>
       <c r="AE43" t="n">
-        <v>-36.10974</v>
+        <v>62.89026</v>
       </c>
     </row>
     <row r="44">
@@ -9296,7 +9296,7 @@
         <v>33.97884</v>
       </c>
       <c r="AE44" t="n">
-        <v>-32.97884</v>
+        <v>66.02116</v>
       </c>
     </row>
     <row r="45">
@@ -9391,7 +9391,7 @@
         <v>38.4761</v>
       </c>
       <c r="AE45" t="n">
-        <v>-37.4761</v>
+        <v>61.5239</v>
       </c>
     </row>
     <row r="46">
@@ -9486,7 +9486,7 @@
         <v>21.25902</v>
       </c>
       <c r="AE46" t="n">
-        <v>-20.25902</v>
+        <v>78.74098</v>
       </c>
     </row>
     <row r="47">
@@ -9581,7 +9581,7 @@
         <v>28.16251</v>
       </c>
       <c r="AE47" t="n">
-        <v>-27.16251</v>
+        <v>71.83749</v>
       </c>
     </row>
     <row r="48">
@@ -9676,7 +9676,7 @@
         <v>38.85158</v>
       </c>
       <c r="AE48" t="n">
-        <v>-37.85158</v>
+        <v>61.14842</v>
       </c>
     </row>
     <row r="49">
@@ -9771,7 +9771,7 @@
         <v>36.46331</v>
       </c>
       <c r="AE49" t="n">
-        <v>-35.46331</v>
+        <v>63.53669</v>
       </c>
     </row>
     <row r="50">
@@ -9866,7 +9866,7 @@
         <v>36.98429</v>
       </c>
       <c r="AE50" t="n">
-        <v>-35.98429</v>
+        <v>63.01571</v>
       </c>
     </row>
     <row r="51">
@@ -9961,7 +9961,7 @@
         <v>39.25587</v>
       </c>
       <c r="AE51" t="n">
-        <v>-38.25587</v>
+        <v>60.74413</v>
       </c>
     </row>
     <row r="52">
@@ -10056,7 +10056,7 @@
         <v>33.01205</v>
       </c>
       <c r="AE52" t="n">
-        <v>-32.01205</v>
+        <v>66.98795</v>
       </c>
     </row>
     <row r="53">
@@ -10151,7 +10151,7 @@
         <v>24.7544</v>
       </c>
       <c r="AE53" t="n">
-        <v>-23.7544</v>
+        <v>75.2456</v>
       </c>
     </row>
     <row r="54">
@@ -10246,7 +10246,7 @@
         <v>42.69934</v>
       </c>
       <c r="AE54" t="n">
-        <v>-41.69934</v>
+        <v>57.30066</v>
       </c>
     </row>
     <row r="55">
@@ -10341,7 +10341,7 @@
         <v>31.49981</v>
       </c>
       <c r="AE55" t="n">
-        <v>-30.49981</v>
+        <v>68.50019</v>
       </c>
     </row>
     <row r="56">
@@ -10436,7 +10436,7 @@
         <v>39.72268</v>
       </c>
       <c r="AE56" t="n">
-        <v>-38.72268</v>
+        <v>60.27732</v>
       </c>
     </row>
     <row r="57">
@@ -10531,7 +10531,7 @@
         <v>30.90357</v>
       </c>
       <c r="AE57" t="n">
-        <v>-29.90357</v>
+        <v>69.09643</v>
       </c>
     </row>
     <row r="58">
@@ -10626,7 +10626,7 @@
         <v>35.8389</v>
       </c>
       <c r="AE58" t="n">
-        <v>-34.8389</v>
+        <v>64.1611</v>
       </c>
     </row>
     <row r="59">
@@ -10721,7 +10721,7 @@
         <v>38.88384</v>
       </c>
       <c r="AE59" t="n">
-        <v>-37.88384</v>
+        <v>61.11616</v>
       </c>
     </row>
     <row r="60">
@@ -10816,7 +10816,7 @@
         <v>26.58336</v>
       </c>
       <c r="AE60" t="n">
-        <v>-25.58336</v>
+        <v>73.41664</v>
       </c>
     </row>
     <row r="61">
@@ -10911,7 +10911,7 @@
         <v>36.06448</v>
       </c>
       <c r="AE61" t="n">
-        <v>-35.06448</v>
+        <v>63.93552</v>
       </c>
     </row>
     <row r="62">
@@ -11006,7 +11006,7 @@
         <v>24.89753</v>
       </c>
       <c r="AE62" t="n">
-        <v>-23.89753</v>
+        <v>75.10247</v>
       </c>
     </row>
     <row r="63">
@@ -11101,7 +11101,7 @@
         <v>38.10149</v>
       </c>
       <c r="AE63" t="n">
-        <v>-37.10149</v>
+        <v>61.89851</v>
       </c>
     </row>
     <row r="64">
@@ -11196,7 +11196,7 @@
         <v>31.26732</v>
       </c>
       <c r="AE64" t="n">
-        <v>-30.26732</v>
+        <v>68.73268</v>
       </c>
     </row>
     <row r="65">
@@ -11291,7 +11291,7 @@
         <v>32.85337</v>
       </c>
       <c r="AE65" t="n">
-        <v>-31.85337</v>
+        <v>67.14663</v>
       </c>
     </row>
     <row r="66">
@@ -11386,7 +11386,7 @@
         <v>32.88161</v>
       </c>
       <c r="AE66" t="n">
-        <v>-31.88161</v>
+        <v>67.11839</v>
       </c>
     </row>
     <row r="67">
@@ -11481,7 +11481,7 @@
         <v>25.50552</v>
       </c>
       <c r="AE67" t="n">
-        <v>-24.50552</v>
+        <v>74.49448</v>
       </c>
     </row>
     <row r="68">
@@ -11576,7 +11576,7 @@
         <v>43.40991</v>
       </c>
       <c r="AE68" t="n">
-        <v>-42.40991</v>
+        <v>56.59009</v>
       </c>
     </row>
     <row r="69">
@@ -11671,7 +11671,7 @@
         <v>25.42628</v>
       </c>
       <c r="AE69" t="n">
-        <v>-24.42628</v>
+        <v>74.57372</v>
       </c>
     </row>
     <row r="70">
@@ -11766,7 +11766,7 @@
         <v>28.8144</v>
       </c>
       <c r="AE70" t="n">
-        <v>-27.8144</v>
+        <v>71.1856</v>
       </c>
     </row>
     <row r="71">
@@ -11861,7 +11861,7 @@
         <v>38.63639</v>
       </c>
       <c r="AE71" t="n">
-        <v>-37.63639</v>
+        <v>61.36361</v>
       </c>
     </row>
     <row r="72">
@@ -11956,7 +11956,7 @@
         <v>24.63422</v>
       </c>
       <c r="AE72" t="n">
-        <v>-23.63422</v>
+        <v>75.36578</v>
       </c>
     </row>
     <row r="73">
@@ -12051,7 +12051,7 @@
         <v>34.30296</v>
       </c>
       <c r="AE73" t="n">
-        <v>-33.30296</v>
+        <v>65.69704</v>
       </c>
     </row>
     <row r="74">
@@ -12146,7 +12146,7 @@
         <v>32.31372</v>
       </c>
       <c r="AE74" t="n">
-        <v>-31.31372</v>
+        <v>67.68628</v>
       </c>
     </row>
     <row r="75">
@@ -12241,7 +12241,7 @@
         <v>33.19133</v>
       </c>
       <c r="AE75" t="n">
-        <v>-32.19133</v>
+        <v>66.80867</v>
       </c>
     </row>
     <row r="76">
@@ -12336,7 +12336,7 @@
         <v>25.40987</v>
       </c>
       <c r="AE76" t="n">
-        <v>-24.40987</v>
+        <v>74.59013</v>
       </c>
     </row>
     <row r="77">
@@ -12431,7 +12431,7 @@
         <v>32.5201</v>
       </c>
       <c r="AE77" t="n">
-        <v>-31.5201</v>
+        <v>67.4799</v>
       </c>
     </row>
     <row r="78">
@@ -12526,7 +12526,7 @@
         <v>29.8841</v>
       </c>
       <c r="AE78" t="n">
-        <v>-28.8841</v>
+        <v>70.1159</v>
       </c>
     </row>
     <row r="79">
@@ -12621,7 +12621,7 @@
         <v>22.32239</v>
       </c>
       <c r="AE79" t="n">
-        <v>-21.32239</v>
+        <v>77.67761</v>
       </c>
     </row>
     <row r="80">
@@ -12716,7 +12716,7 @@
         <v>26.79501</v>
       </c>
       <c r="AE80" t="n">
-        <v>-25.79501</v>
+        <v>73.20499</v>
       </c>
     </row>
     <row r="81">
@@ -12811,7 +12811,7 @@
         <v>30.76649</v>
       </c>
       <c r="AE81" t="n">
-        <v>-29.76649</v>
+        <v>69.23351</v>
       </c>
     </row>
     <row r="82">
@@ -12906,7 +12906,7 @@
         <v>32.55103</v>
       </c>
       <c r="AE82" t="n">
-        <v>-31.55103</v>
+        <v>67.44897</v>
       </c>
     </row>
     <row r="83">
@@ -13001,7 +13001,7 @@
         <v>25.23801</v>
       </c>
       <c r="AE83" t="n">
-        <v>-24.23801</v>
+        <v>74.76199</v>
       </c>
     </row>
     <row r="84">
@@ -13096,7 +13096,7 @@
         <v>35.21715</v>
       </c>
       <c r="AE84" t="n">
-        <v>-34.21715</v>
+        <v>64.78285</v>
       </c>
     </row>
     <row r="85">
@@ -13191,7 +13191,7 @@
         <v>30.09647</v>
       </c>
       <c r="AE85" t="n">
-        <v>-29.09647</v>
+        <v>69.90353</v>
       </c>
     </row>
     <row r="86">
@@ -13286,7 +13286,7 @@
         <v>30.55526</v>
       </c>
       <c r="AE86" t="n">
-        <v>-29.55526</v>
+        <v>69.44474</v>
       </c>
     </row>
     <row r="87">
@@ -13381,7 +13381,7 @@
         <v>33.58842</v>
       </c>
       <c r="AE87" t="n">
-        <v>-32.58842</v>
+        <v>66.41158</v>
       </c>
     </row>
     <row r="88">
@@ -13476,7 +13476,7 @@
         <v>35.52123</v>
       </c>
       <c r="AE88" t="n">
-        <v>-34.52123</v>
+        <v>64.47877</v>
       </c>
     </row>
     <row r="89">
@@ -13571,7 +13571,7 @@
         <v>30.58299</v>
       </c>
       <c r="AE89" t="n">
-        <v>-29.58299</v>
+        <v>69.41701</v>
       </c>
     </row>
     <row r="90">
@@ -13666,7 +13666,7 @@
         <v>42.72303</v>
       </c>
       <c r="AE90" t="n">
-        <v>-41.72303</v>
+        <v>57.27697</v>
       </c>
     </row>
     <row r="91">
@@ -13761,7 +13761,7 @@
         <v>30.85096</v>
       </c>
       <c r="AE91" t="n">
-        <v>-29.85096</v>
+        <v>69.14904</v>
       </c>
     </row>
     <row r="92">
@@ -13856,7 +13856,7 @@
         <v>31.78993</v>
       </c>
       <c r="AE92" t="n">
-        <v>-30.78993</v>
+        <v>68.21007</v>
       </c>
     </row>
     <row r="93">
@@ -13951,7 +13951,7 @@
         <v>42.31985</v>
       </c>
       <c r="AE93" t="n">
-        <v>-41.31985</v>
+        <v>57.68015</v>
       </c>
     </row>
     <row r="94">
@@ -14046,7 +14046,7 @@
         <v>42.35077</v>
       </c>
       <c r="AE94" t="n">
-        <v>-41.35077</v>
+        <v>57.64923</v>
       </c>
     </row>
     <row r="95">
@@ -14141,7 +14141,7 @@
         <v>39.17911</v>
       </c>
       <c r="AE95" t="n">
-        <v>-38.17911</v>
+        <v>60.82089</v>
       </c>
     </row>
     <row r="96">
@@ -14236,7 +14236,7 @@
         <v>26.61039</v>
       </c>
       <c r="AE96" t="n">
-        <v>-25.61039</v>
+        <v>73.38961</v>
       </c>
     </row>
     <row r="97">
@@ -14331,7 +14331,7 @@
         <v>35.21733</v>
       </c>
       <c r="AE97" t="n">
-        <v>-34.21733</v>
+        <v>64.78267</v>
       </c>
     </row>
     <row r="98">
@@ -14426,7 +14426,7 @@
         <v>37.5061</v>
       </c>
       <c r="AE98" t="n">
-        <v>-36.5061</v>
+        <v>62.4939</v>
       </c>
     </row>
     <row r="99">
@@ -14521,7 +14521,7 @@
         <v>36.68775</v>
       </c>
       <c r="AE99" t="n">
-        <v>-35.68775</v>
+        <v>63.31225</v>
       </c>
     </row>
     <row r="100">
@@ -14616,7 +14616,7 @@
         <v>39.3</v>
       </c>
       <c r="AE100" t="n">
-        <v>-38.3</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="101">
@@ -14711,7 +14711,7 @@
         <v>31.14336</v>
       </c>
       <c r="AE101" t="n">
-        <v>-30.14336</v>
+        <v>68.85664</v>
       </c>
     </row>
     <row r="102">
@@ -14806,7 +14806,7 @@
         <v>37.55501</v>
       </c>
       <c r="AE102" t="n">
-        <v>-36.55501</v>
+        <v>62.44499</v>
       </c>
     </row>
     <row r="103">
@@ -14901,7 +14901,7 @@
         <v>36.72713</v>
       </c>
       <c r="AE103" t="n">
-        <v>-35.72713</v>
+        <v>63.27287</v>
       </c>
     </row>
     <row r="104">
@@ -14996,7 +14996,7 @@
         <v>23.34271</v>
       </c>
       <c r="AE104" t="n">
-        <v>-22.34271</v>
+        <v>76.65729</v>
       </c>
     </row>
     <row r="105">
@@ -15091,7 +15091,7 @@
         <v>34.0207</v>
       </c>
       <c r="AE105" t="n">
-        <v>-33.0207</v>
+        <v>65.9793</v>
       </c>
     </row>
     <row r="106">
@@ -15186,7 +15186,7 @@
         <v>38.33558</v>
       </c>
       <c r="AE106" t="n">
-        <v>-37.33558</v>
+        <v>61.66442</v>
       </c>
     </row>
     <row r="107">
@@ -15281,7 +15281,7 @@
         <v>34.19187</v>
       </c>
       <c r="AE107" t="n">
-        <v>-33.19187</v>
+        <v>65.80813</v>
       </c>
     </row>
     <row r="108">
@@ -15376,7 +15376,7 @@
         <v>26.31343</v>
       </c>
       <c r="AE108" t="n">
-        <v>-25.31343</v>
+        <v>73.68657</v>
       </c>
     </row>
     <row r="109">
@@ -15471,7 +15471,7 @@
         <v>33.1</v>
       </c>
       <c r="AE109" t="n">
-        <v>-32.1</v>
+        <v>66.9</v>
       </c>
     </row>
     <row r="110">
@@ -15566,7 +15566,7 @@
         <v>36.46431</v>
       </c>
       <c r="AE110" t="n">
-        <v>-35.46431</v>
+        <v>63.53569</v>
       </c>
     </row>
     <row r="111">
@@ -15661,7 +15661,7 @@
         <v>28.52218</v>
       </c>
       <c r="AE111" t="n">
-        <v>-27.52218</v>
+        <v>71.47782</v>
       </c>
     </row>
     <row r="112">
@@ -15756,7 +15756,7 @@
         <v>35.963</v>
       </c>
       <c r="AE112" t="n">
-        <v>-34.963</v>
+        <v>64.037</v>
       </c>
     </row>
     <row r="113">
@@ -15851,7 +15851,7 @@
         <v>34.88687</v>
       </c>
       <c r="AE113" t="n">
-        <v>-33.88687</v>
+        <v>65.11313</v>
       </c>
     </row>
     <row r="114">
@@ -15946,7 +15946,7 @@
         <v>39.14635</v>
       </c>
       <c r="AE114" t="n">
-        <v>-38.14635</v>
+        <v>60.85365</v>
       </c>
     </row>
     <row r="115">
@@ -16041,7 +16041,7 @@
         <v>28.11639</v>
       </c>
       <c r="AE115" t="n">
-        <v>-27.11639</v>
+        <v>71.88361</v>
       </c>
     </row>
     <row r="116">
@@ -16136,7 +16136,7 @@
         <v>34.83013</v>
       </c>
       <c r="AE116" t="n">
-        <v>-33.83013</v>
+        <v>65.16987</v>
       </c>
     </row>
     <row r="117">
@@ -16231,7 +16231,7 @@
         <v>25.97156</v>
       </c>
       <c r="AE117" t="n">
-        <v>-24.97156</v>
+        <v>74.02844</v>
       </c>
     </row>
     <row r="118">
@@ -16326,7 +16326,7 @@
         <v>41.82123</v>
       </c>
       <c r="AE118" t="n">
-        <v>-40.82123</v>
+        <v>58.17877</v>
       </c>
     </row>
     <row r="119">
@@ -16421,7 +16421,7 @@
         <v>27.05908</v>
       </c>
       <c r="AE119" t="n">
-        <v>-26.05908</v>
+        <v>72.94092</v>
       </c>
     </row>
     <row r="120">
@@ -16516,7 +16516,7 @@
         <v>32.18473</v>
       </c>
       <c r="AE120" t="n">
-        <v>-31.18473</v>
+        <v>67.81527</v>
       </c>
     </row>
     <row r="121">
@@ -16611,7 +16611,7 @@
         <v>27.36797</v>
       </c>
       <c r="AE121" t="n">
-        <v>-26.36797</v>
+        <v>72.63203</v>
       </c>
     </row>
     <row r="122">
@@ -16706,7 +16706,7 @@
         <v>31.36152</v>
       </c>
       <c r="AE122" t="n">
-        <v>-30.36152</v>
+        <v>68.63848</v>
       </c>
     </row>
     <row r="123">
@@ -16801,7 +16801,7 @@
         <v>28.505</v>
       </c>
       <c r="AE123" t="n">
-        <v>-27.505</v>
+        <v>71.495</v>
       </c>
     </row>
     <row r="124">
@@ -16896,7 +16896,7 @@
         <v>37.37816</v>
       </c>
       <c r="AE124" t="n">
-        <v>-36.37816</v>
+        <v>62.62184</v>
       </c>
     </row>
     <row r="125">
@@ -16991,7 +16991,7 @@
         <v>35.00579</v>
       </c>
       <c r="AE125" t="n">
-        <v>-34.00579</v>
+        <v>64.99421</v>
       </c>
     </row>
     <row r="126">
@@ -17086,7 +17086,7 @@
         <v>35.16534</v>
       </c>
       <c r="AE126" t="n">
-        <v>-34.16534</v>
+        <v>64.83466</v>
       </c>
     </row>
     <row r="127">
@@ -17181,7 +17181,7 @@
         <v>32.49972</v>
       </c>
       <c r="AE127" t="n">
-        <v>-31.49972</v>
+        <v>67.50028</v>
       </c>
     </row>
     <row r="128">
@@ -17276,7 +17276,7 @@
         <v>29.2004</v>
       </c>
       <c r="AE128" t="n">
-        <v>-28.2004</v>
+        <v>70.7996</v>
       </c>
     </row>
     <row r="129">
@@ -17371,7 +17371,7 @@
         <v>40.06147</v>
       </c>
       <c r="AE129" t="n">
-        <v>-39.06147</v>
+        <v>59.93853</v>
       </c>
     </row>
     <row r="130">
@@ -17466,7 +17466,7 @@
         <v>38.64271</v>
       </c>
       <c r="AE130" t="n">
-        <v>-37.64271</v>
+        <v>61.35729</v>
       </c>
     </row>
     <row r="131">
@@ -17561,7 +17561,7 @@
         <v>20.42845</v>
       </c>
       <c r="AE131" t="n">
-        <v>-19.42845</v>
+        <v>79.57155</v>
       </c>
     </row>
     <row r="132">
@@ -17656,7 +17656,7 @@
         <v>31.71774</v>
       </c>
       <c r="AE132" t="n">
-        <v>-30.71774</v>
+        <v>68.28226</v>
       </c>
     </row>
     <row r="133">
@@ -17751,7 +17751,7 @@
         <v>41.67502</v>
       </c>
       <c r="AE133" t="n">
-        <v>-40.67502</v>
+        <v>58.32498</v>
       </c>
     </row>
     <row r="134">
@@ -17846,7 +17846,7 @@
         <v>35.34593</v>
       </c>
       <c r="AE134" t="n">
-        <v>-34.34593</v>
+        <v>64.65407</v>
       </c>
     </row>
     <row r="135">
@@ -17941,7 +17941,7 @@
         <v>22.14316</v>
       </c>
       <c r="AE135" t="n">
-        <v>-21.14316</v>
+        <v>77.85684</v>
       </c>
     </row>
     <row r="136">
@@ -18036,7 +18036,7 @@
         <v>34.37715</v>
       </c>
       <c r="AE136" t="n">
-        <v>-33.37715</v>
+        <v>65.62285</v>
       </c>
     </row>
     <row r="137">
@@ -18131,7 +18131,7 @@
         <v>36.11354</v>
       </c>
       <c r="AE137" t="n">
-        <v>-35.11354</v>
+        <v>63.88646</v>
       </c>
     </row>
     <row r="138">
@@ -18226,7 +18226,7 @@
         <v>29.1068</v>
       </c>
       <c r="AE138" t="n">
-        <v>-28.1068</v>
+        <v>70.8932</v>
       </c>
     </row>
     <row r="139">
@@ -18321,7 +18321,7 @@
         <v>40.65817</v>
       </c>
       <c r="AE139" t="n">
-        <v>-39.65817</v>
+        <v>59.34183</v>
       </c>
     </row>
     <row r="140">
@@ -18416,7 +18416,7 @@
         <v>36.16976</v>
       </c>
       <c r="AE140" t="n">
-        <v>-35.16976</v>
+        <v>63.83024</v>
       </c>
     </row>
     <row r="141">
@@ -18511,7 +18511,7 @@
         <v>30.57528</v>
       </c>
       <c r="AE141" t="n">
-        <v>-29.57528</v>
+        <v>69.42472</v>
       </c>
     </row>
     <row r="142">
@@ -18606,7 +18606,7 @@
         <v>36.36801</v>
       </c>
       <c r="AE142" t="n">
-        <v>-35.36801</v>
+        <v>63.63199</v>
       </c>
     </row>
     <row r="143">
@@ -18701,7 +18701,7 @@
         <v>27.2423</v>
       </c>
       <c r="AE143" t="n">
-        <v>-26.2423</v>
+        <v>72.7577</v>
       </c>
     </row>
     <row r="144">
@@ -18796,7 +18796,7 @@
         <v>37.28343</v>
       </c>
       <c r="AE144" t="n">
-        <v>-36.28343</v>
+        <v>62.71657</v>
       </c>
     </row>
     <row r="145">
@@ -18891,7 +18891,7 @@
         <v>27.5705</v>
       </c>
       <c r="AE145" t="n">
-        <v>-26.5705</v>
+        <v>72.4295</v>
       </c>
     </row>
     <row r="146">
@@ -18986,7 +18986,7 @@
         <v>30.57178</v>
       </c>
       <c r="AE146" t="n">
-        <v>-29.57178</v>
+        <v>69.42822</v>
       </c>
     </row>
     <row r="147">
@@ -19081,7 +19081,7 @@
         <v>39.26179</v>
       </c>
       <c r="AE147" t="n">
-        <v>-38.26179</v>
+        <v>60.73821</v>
       </c>
     </row>
     <row r="148">
@@ -19176,7 +19176,7 @@
         <v>33.34457</v>
       </c>
       <c r="AE148" t="n">
-        <v>-32.34457</v>
+        <v>66.65543</v>
       </c>
     </row>
     <row r="149">
@@ -19271,7 +19271,7 @@
         <v>24.6592</v>
       </c>
       <c r="AE149" t="n">
-        <v>-23.6592</v>
+        <v>75.3408</v>
       </c>
     </row>
     <row r="150">
@@ -19366,7 +19366,7 @@
         <v>29.51889</v>
       </c>
       <c r="AE150" t="n">
-        <v>-28.51889</v>
+        <v>70.48111</v>
       </c>
     </row>
     <row r="151">
@@ -19461,7 +19461,7 @@
         <v>32.43561</v>
       </c>
       <c r="AE151" t="n">
-        <v>-31.43561</v>
+        <v>67.56439</v>
       </c>
     </row>
     <row r="152">
@@ -19556,7 +19556,7 @@
         <v>29.1666</v>
       </c>
       <c r="AE152" t="n">
-        <v>-28.1666</v>
+        <v>70.8334</v>
       </c>
     </row>
     <row r="153">
@@ -19651,7 +19651,7 @@
         <v>28.28976</v>
       </c>
       <c r="AE153" t="n">
-        <v>-27.28976</v>
+        <v>71.71024</v>
       </c>
     </row>
     <row r="154">
@@ -19746,7 +19746,7 @@
         <v>31.69545</v>
       </c>
       <c r="AE154" t="n">
-        <v>-30.69545</v>
+        <v>68.30455</v>
       </c>
     </row>
     <row r="155">
@@ -19841,7 +19841,7 @@
         <v>34.33948</v>
       </c>
       <c r="AE155" t="n">
-        <v>-33.33948</v>
+        <v>65.66052</v>
       </c>
     </row>
     <row r="156">
@@ -19936,7 +19936,7 @@
         <v>30.9258</v>
       </c>
       <c r="AE156" t="n">
-        <v>-29.9258</v>
+        <v>69.0742</v>
       </c>
     </row>
     <row r="157">
@@ -20031,7 +20031,7 @@
         <v>29.95973</v>
       </c>
       <c r="AE157" t="n">
-        <v>-28.95973</v>
+        <v>70.04027</v>
       </c>
     </row>
     <row r="158">
@@ -20126,7 +20126,7 @@
         <v>24.81517</v>
       </c>
       <c r="AE158" t="n">
-        <v>-23.81517</v>
+        <v>75.18483</v>
       </c>
     </row>
     <row r="159">
@@ -20221,7 +20221,7 @@
         <v>43.93974</v>
       </c>
       <c r="AE159" t="n">
-        <v>-42.93974</v>
+        <v>56.06026</v>
       </c>
     </row>
     <row r="160">
@@ -20316,7 +20316,7 @@
         <v>21.71563</v>
       </c>
       <c r="AE160" t="n">
-        <v>-20.71563</v>
+        <v>78.28437</v>
       </c>
     </row>
     <row r="161">
@@ -20411,7 +20411,7 @@
         <v>42.53771</v>
       </c>
       <c r="AE161" t="n">
-        <v>-41.53771</v>
+        <v>57.46229</v>
       </c>
     </row>
     <row r="162">
@@ -20506,7 +20506,7 @@
         <v>30.19908</v>
       </c>
       <c r="AE162" t="n">
-        <v>-29.19908</v>
+        <v>69.80092</v>
       </c>
     </row>
     <row r="163">
@@ -20601,7 +20601,7 @@
         <v>21.05306</v>
       </c>
       <c r="AE163" t="n">
-        <v>-20.05306</v>
+        <v>78.94694</v>
       </c>
     </row>
     <row r="164">
@@ -20696,7 +20696,7 @@
         <v>33.63203</v>
       </c>
       <c r="AE164" t="n">
-        <v>-32.63203</v>
+        <v>66.36797</v>
       </c>
     </row>
     <row r="165">
@@ -20791,7 +20791,7 @@
         <v>27.03849</v>
       </c>
       <c r="AE165" t="n">
-        <v>-26.03849</v>
+        <v>72.96151</v>
       </c>
     </row>
     <row r="166">
@@ -20886,7 +20886,7 @@
         <v>23.47616</v>
       </c>
       <c r="AE166" t="n">
-        <v>-22.47616</v>
+        <v>76.52384</v>
       </c>
     </row>
     <row r="167">
@@ -20981,7 +20981,7 @@
         <v>36.46432</v>
       </c>
       <c r="AE167" t="n">
-        <v>-35.46432</v>
+        <v>63.53568</v>
       </c>
     </row>
     <row r="168">
@@ -21076,7 +21076,7 @@
         <v>37.91784</v>
       </c>
       <c r="AE168" t="n">
-        <v>-36.91784</v>
+        <v>62.08216</v>
       </c>
     </row>
     <row r="169">
@@ -21171,7 +21171,7 @@
         <v>31.1593</v>
       </c>
       <c r="AE169" t="n">
-        <v>-30.1593</v>
+        <v>68.8407</v>
       </c>
     </row>
     <row r="170">
@@ -21266,7 +21266,7 @@
         <v>25.87646</v>
       </c>
       <c r="AE170" t="n">
-        <v>-24.87646</v>
+        <v>74.12354</v>
       </c>
     </row>
     <row r="171">
@@ -21361,7 +21361,7 @@
         <v>36.22153</v>
       </c>
       <c r="AE171" t="n">
-        <v>-35.22153</v>
+        <v>63.77847</v>
       </c>
     </row>
     <row r="172">
@@ -21456,7 +21456,7 @@
         <v>30.22521</v>
       </c>
       <c r="AE172" t="n">
-        <v>-29.22521</v>
+        <v>69.77479</v>
       </c>
     </row>
     <row r="173">
@@ -21551,7 +21551,7 @@
         <v>29.0433</v>
       </c>
       <c r="AE173" t="n">
-        <v>-28.0433</v>
+        <v>70.9567</v>
       </c>
     </row>
     <row r="174">
@@ -21646,7 +21646,7 @@
         <v>33.51688</v>
       </c>
       <c r="AE174" t="n">
-        <v>-32.51688</v>
+        <v>66.48312</v>
       </c>
     </row>
     <row r="175">
@@ -21741,7 +21741,7 @@
         <v>36.90257</v>
       </c>
       <c r="AE175" t="n">
-        <v>-35.90257</v>
+        <v>63.09743</v>
       </c>
     </row>
     <row r="176">
@@ -21836,7 +21836,7 @@
         <v>38.87556</v>
       </c>
       <c r="AE176" t="n">
-        <v>-37.87556</v>
+        <v>61.12444</v>
       </c>
     </row>
     <row r="177">
@@ -21931,7 +21931,7 @@
         <v>42.2619</v>
       </c>
       <c r="AE177" t="n">
-        <v>-41.2619</v>
+        <v>57.7381</v>
       </c>
     </row>
     <row r="178">
@@ -22026,7 +22026,7 @@
         <v>37.70529</v>
       </c>
       <c r="AE178" t="n">
-        <v>-36.70529</v>
+        <v>62.29471</v>
       </c>
     </row>
     <row r="179">
@@ -22121,7 +22121,7 @@
         <v>38.98816</v>
       </c>
       <c r="AE179" t="n">
-        <v>-37.98816</v>
+        <v>61.01184</v>
       </c>
     </row>
     <row r="180">
@@ -22216,7 +22216,7 @@
         <v>38.09272</v>
       </c>
       <c r="AE180" t="n">
-        <v>-37.09272</v>
+        <v>61.90728</v>
       </c>
     </row>
     <row r="181">
@@ -22311,7 +22311,7 @@
         <v>35.03196</v>
       </c>
       <c r="AE181" t="n">
-        <v>-34.03196</v>
+        <v>64.96804</v>
       </c>
     </row>
     <row r="182">
@@ -22406,7 +22406,7 @@
         <v>33.54938</v>
       </c>
       <c r="AE182" t="n">
-        <v>-32.54938</v>
+        <v>66.45062</v>
       </c>
     </row>
     <row r="183">
@@ -22501,7 +22501,7 @@
         <v>34.77143</v>
       </c>
       <c r="AE183" t="n">
-        <v>-33.77143</v>
+        <v>65.22857</v>
       </c>
     </row>
     <row r="184">
@@ -22596,7 +22596,7 @@
         <v>34.24176</v>
       </c>
       <c r="AE184" t="n">
-        <v>-33.24176</v>
+        <v>65.75824</v>
       </c>
     </row>
     <row r="185">
@@ -22691,7 +22691,7 @@
         <v>37.14214</v>
       </c>
       <c r="AE185" t="n">
-        <v>-36.14214</v>
+        <v>62.85786</v>
       </c>
     </row>
     <row r="186">
@@ -22786,7 +22786,7 @@
         <v>31.87494</v>
       </c>
       <c r="AE186" t="n">
-        <v>-30.87494</v>
+        <v>68.12506</v>
       </c>
     </row>
     <row r="187">
@@ -22881,7 +22881,7 @@
         <v>35.3028</v>
       </c>
       <c r="AE187" t="n">
-        <v>-34.3028</v>
+        <v>64.6972</v>
       </c>
     </row>
     <row r="188">
@@ -22976,7 +22976,7 @@
         <v>30.41492</v>
       </c>
       <c r="AE188" t="n">
-        <v>-29.41492</v>
+        <v>69.58508</v>
       </c>
     </row>
     <row r="189">
@@ -23071,7 +23071,7 @@
         <v>30.92689</v>
       </c>
       <c r="AE189" t="n">
-        <v>-29.92689</v>
+        <v>69.07311</v>
       </c>
     </row>
     <row r="190">
@@ -23166,7 +23166,7 @@
         <v>31.36459</v>
       </c>
       <c r="AE190" t="n">
-        <v>-30.36459</v>
+        <v>68.63541</v>
       </c>
     </row>
     <row r="191">
@@ -23261,7 +23261,7 @@
         <v>33.63909</v>
       </c>
       <c r="AE191" t="n">
-        <v>-32.63909</v>
+        <v>66.36091</v>
       </c>
     </row>
     <row r="192">
@@ -23356,7 +23356,7 @@
         <v>32.02142</v>
       </c>
       <c r="AE192" t="n">
-        <v>-31.02142</v>
+        <v>67.97858</v>
       </c>
     </row>
     <row r="193">
@@ -23451,7 +23451,7 @@
         <v>42.89177</v>
       </c>
       <c r="AE193" t="n">
-        <v>-41.89177</v>
+        <v>57.10823</v>
       </c>
     </row>
     <row r="194">
@@ -23546,7 +23546,7 @@
         <v>41.66286</v>
       </c>
       <c r="AE194" t="n">
-        <v>-40.66286</v>
+        <v>58.33714</v>
       </c>
     </row>
     <row r="195">
@@ -23641,7 +23641,7 @@
         <v>25.08741</v>
       </c>
       <c r="AE195" t="n">
-        <v>-24.08741</v>
+        <v>74.91259</v>
       </c>
     </row>
     <row r="196">
@@ -23736,7 +23736,7 @@
         <v>35.73487</v>
       </c>
       <c r="AE196" t="n">
-        <v>-34.73487</v>
+        <v>64.26513</v>
       </c>
     </row>
     <row r="197">
@@ -23831,7 +23831,7 @@
         <v>39.34402</v>
       </c>
       <c r="AE197" t="n">
-        <v>-38.34402</v>
+        <v>60.65598</v>
       </c>
     </row>
   </sheetData>
